--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1367,21 +1367,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,51 +1487,51 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1541,27 +1541,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1577,21 +1577,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,27 +1601,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1661,27 +1661,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,21 +1697,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1721,35 +1721,95 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>21</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
         <v>22</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0-7</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Fly with caution</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>9-11</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1367,21 +1367,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,51 +1487,51 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1541,27 +1541,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1577,21 +1577,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,27 +1601,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1661,27 +1661,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,21 +1697,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1721,27 +1721,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1750,66 +1750,6 @@
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>22</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>22</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
